--- a/training_results.xlsx
+++ b/training_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmarzec003/Documents/GitHub/BAT-Crypto-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03FAAA-C2DB-CF4A-8A15-E7750E66B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A81B80-397E-EE46-B7BD-B5A9F5D968AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="-20400" windowWidth="28040" windowHeight="17440" xr2:uid="{60F0C511-6132-EB4E-9B63-DFE188E3A433}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" activeTab="1" xr2:uid="{60F0C511-6132-EB4E-9B63-DFE188E3A433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAE Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
   <si>
     <t>Objective</t>
   </si>
@@ -57,13 +58,42 @@
   <si>
     <t>MAE Result</t>
   </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Expanding-Window</t>
+  </si>
+  <si>
+    <t>Walk-Forward</t>
+  </si>
+  <si>
+    <t>Lookback Window</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.00000000000000000000000E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,9 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CB9067-B631-CA45-8782-A4F9EE04AD77}">
-  <dimension ref="B2:G66"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,6 +452,7 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1492,7 +1526,7 @@
         <v>3.4108804999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>2</v>
       </c>
@@ -1509,7 +1543,7 @@
         <v>3.4148132704580898E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>2</v>
       </c>
@@ -1524,6 +1558,16 @@
       </c>
       <c r="F66">
         <v>3.4178454164197299E-2</v>
+      </c>
+      <c r="G66">
+        <f>MIN(F65:F66)</f>
+        <v>3.4148132704580898E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="2">
+        <f>F66-F65</f>
+        <v>3.0321459616400315E-5</v>
       </c>
     </row>
   </sheetData>
@@ -1539,4 +1583,206 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A91807-A0A1-F643-8413-754071ABDB47}">
+  <dimension ref="B2:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f>C10+5</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C24" si="0">C11+5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/training_results.xlsx
+++ b/training_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmarzec003/Documents/GitHub/BAT-Crypto-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A81B80-397E-EE46-B7BD-B5A9F5D968AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D880513-5571-184C-8EF0-009EC16855B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" activeTab="1" xr2:uid="{60F0C511-6132-EB4E-9B63-DFE188E3A433}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" activeTab="2" xr2:uid="{60F0C511-6132-EB4E-9B63-DFE188E3A433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MAE Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="ROI Table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
   <si>
     <t>Objective</t>
   </si>
@@ -76,6 +77,24 @@
   <si>
     <t>MAE</t>
   </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Final $</t>
+  </si>
+  <si>
+    <t>Hold_USD</t>
+  </si>
+  <si>
+    <t>Hold_BAT</t>
+  </si>
+  <si>
+    <t>Hold_BTC</t>
+  </si>
+  <si>
+    <t>Trade_BAT</t>
+  </si>
 </sst>
 </file>
 
@@ -95,21 +114,27 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,16 +142,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,197 +1728,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A91807-A0A1-F643-8413-754071ABDB47}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.229548999999999</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
+      <c r="D5" s="10">
+        <v>4.8568810761006602E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>10</v>
       </c>
+      <c r="D6" s="10">
+        <v>4.9774374354044602E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>15</v>
       </c>
+      <c r="D7" s="10">
+        <v>5.3700978295389799E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>20</v>
       </c>
+      <c r="D8" s="10">
+        <v>6.6353776927947999E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>25</v>
       </c>
+      <c r="D9" s="10">
+        <v>4.9613319980112702E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>30</v>
       </c>
+      <c r="D10" s="10">
+        <v>4.1786037620290102E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <f>C10+5</f>
         <v>35</v>
       </c>
+      <c r="D11" s="10">
+        <v>4.1731450905609098E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <f t="shared" ref="C12:C24" si="0">C11+5</f>
         <v>40</v>
       </c>
+      <c r="D12" s="10">
+        <v>3.6480075007120701E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="D13" s="10">
+        <v>4.0204332345072397E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="D14" s="10">
+        <v>3.7093765944162999E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="D15" s="10">
+        <v>4.1614265151468897E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="D16" s="10">
+        <v>4.0733204358164403E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="D17" s="10">
+        <v>4.6602635282897903E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="D18" s="10">
+        <v>4.16390391199747E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="D19" s="10">
+        <v>3.8282475149536102E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="D20" s="10">
+        <v>4.7483200368754003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="D21" s="10">
+        <v>6.1132523617045097E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>90</v>
+      </c>
+      <c r="D22" s="14">
+        <v>4.4985923738352397E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C90431-42C8-E04D-A81D-DE312C406823}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1168.31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1034.9000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1066.8599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1317.24</v>
       </c>
     </row>
   </sheetData>
